--- a/data/trans_dic/P54_A_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>60,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,68%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>75,15%</t>
+          <t>74,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>84,41%</t>
+          <t>82,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>72,08%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>76,38%</t>
+          <t>75,86%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 20,44</t>
+          <t>3,36; 28,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,05; 79,75</t>
+          <t>40,84; 77,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,69; 80,05</t>
+          <t>48,4; 82,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 26,91</t>
+          <t>6,85; 28,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,9; 82,96</t>
+          <t>60,37; 85,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,68; 91,09</t>
+          <t>69,84; 91,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 20,7</t>
+          <t>7,71; 25,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,13; 79,74</t>
+          <t>56,72; 78,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,63; 83,47</t>
+          <t>65,49; 85,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>69,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,37%</t>
+          <t>74,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>73,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,12%</t>
+          <t>70,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>73,82%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 53,46</t>
+          <t>8,42; 63,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,53; 76,44</t>
+          <t>50,94; 85,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,26; 81,47</t>
+          <t>57,53; 87,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 29,23</t>
+          <t>3,23; 21,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,07; 80,82</t>
+          <t>55,06; 81,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,22; 79,42</t>
+          <t>59,75; 85,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 35,94</t>
+          <t>10,49; 43,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,2; 75,62</t>
+          <t>60,04; 80,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,37; 77,79</t>
+          <t>63,26; 82,69</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>70,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>71,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>75,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,27%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>71,4%</t>
+          <t>72,2%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 20,97</t>
+          <t>6,84; 25,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,04; 83,47</t>
+          <t>57,54; 80,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,35; 75,94</t>
+          <t>53,68; 79,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 19,4</t>
+          <t>7,66; 23,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,03; 79,23</t>
+          <t>61,52; 79,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,47; 82,24</t>
+          <t>65,01; 83,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 17,83</t>
+          <t>8,76; 20,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,27; 78,78</t>
+          <t>63,15; 77,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,72; 77,68</t>
+          <t>65,18; 79,18</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,34%</t>
+          <t>69,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>74,45%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,38; 20,63</t>
+          <t>7,7; 22,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,23; 71,17</t>
+          <t>51,61; 72,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,3; 78,39</t>
+          <t>59,42; 79,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 27,12</t>
+          <t>12,02; 28,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,07; 82,0</t>
+          <t>65,11; 82,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,44; 85,6</t>
+          <t>70,02; 85,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 21,77</t>
+          <t>11,59; 22,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,18; 74,84</t>
+          <t>61,21; 75,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,79; 80,47</t>
+          <t>67,88; 80,18</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>64,53%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68,12%</t>
+          <t>64,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>74,33%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>76,52%</t>
+          <t>73,29%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 13,94</t>
+          <t>1,36; 11,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,53; 73,32</t>
+          <t>48,28; 77,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,56; 76,88</t>
+          <t>47,34; 77,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 19,81</t>
+          <t>4,16; 23,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,91; 90,94</t>
+          <t>79,82; 96,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>77,97; 91,09</t>
+          <t>73,27; 92,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 14,81</t>
+          <t>3,51; 13,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,57; 79,99</t>
+          <t>64,7; 83,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,55; 82,48</t>
+          <t>60,72; 81,02</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>79,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,44%</t>
+          <t>69,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>77,58%</t>
+          <t>77,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>78,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>77,19%</t>
+          <t>74,73%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 20,21</t>
+          <t>4,94; 26,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,39; 89,1</t>
+          <t>62,92; 89,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>59,09; 79,59</t>
+          <t>53,78; 81,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,0; 44,47</t>
+          <t>14,69; 45,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,45; 85,56</t>
+          <t>63,05; 87,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>74,9; 90,9</t>
+          <t>65,23; 89,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,98; 30,02</t>
+          <t>11,87; 31,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>72,23; 85,87</t>
+          <t>69,16; 86,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>69,85; 83,16</t>
+          <t>64,35; 83,26</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>69,45%</t>
+          <t>67,82%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>69,04%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>73,93%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,34; 19,47</t>
+          <t>10,64; 24,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>65,3; 73,65</t>
+          <t>61,43; 73,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>64,32; 73,1</t>
+          <t>63,62; 74,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,61; 21,38</t>
+          <t>11,71; 19,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>72,1; 78,86</t>
+          <t>70,3; 79,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>75,84; 82,17</t>
+          <t>73,78; 82,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,11</t>
+          <t>12,37; 20,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,9; 75,49</t>
+          <t>68,06; 75,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,41; 76,65</t>
+          <t>70,4; 77,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11197</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>64256</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>71802</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16524</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>97958</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97932</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27721</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>169733</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2893; 24950</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43708; 82851</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51171; 87577</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7900; 32944</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>78951; 112436</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>82430; 108292</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15527; 51443</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>134894; 185885</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>146521; 190409</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>44843</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>115456</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>106489</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>116133</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>91106</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>57853</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>231589</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>197595</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11308; 84692</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>84412; 141667</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>82500; 124832</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4231; 27854</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>90902; 134115</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>74252; 105735</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27822; 114952</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>198620; 266519</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>169332; 221341</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19850</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>113718</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>88942</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28518</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>188419</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>156548</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48368</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>302137</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>245490</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9394; 34809</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>93244; 131167</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>71056; 104981</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16355; 50489</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>162462; 208903</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>134980; 173834</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30755; 72314</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>269093; 329417</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>221638; 269219</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22906</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>115459</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>110729</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>34363</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>159024</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>145843</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57269</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>274484</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>256573</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12265; 36277</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>95155; 134219</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>94280; 126546</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22752; 54580</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>139113; 175918</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>130191; 159152</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>40401; 79877</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>243642; 301429</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>233917; 276294</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5738</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>103975</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>84353</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>102486</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79786</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16524</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>206461</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>164140</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1797; 15273</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>75026; 121035</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>61611; 100289</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4114; 22881</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>91033; 109778</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>68740; 86883</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8128; 31481</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>174316; 225630</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>135998; 181448</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11424</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>86561</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>59396</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>25621</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>104741</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>79622</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>37045</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>191301</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>139018</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4462; 24276</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>68778; 97433</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45890; 69608</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13595; 41915</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>84865; 118140</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>65689; 90317</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>21686; 57822</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>168690; 211916</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>119707; 154886</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>503.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>115957</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>599426</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>521711</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>128824</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>768761</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>650837</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>244781</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1368186</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1172549</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>78686; 179730</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>542919; 649183</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>480732; 566582</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>98432; 166894</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>718638; 810473</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>612675; 681626</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>195553; 319039</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1297328; 1431823</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1116601; 1223809</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>